--- a/test_data/synthetic/SalesTax_Claims.xlsx
+++ b/test_data/synthetic/SalesTax_Claims.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="206">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -124,6 +124,18 @@
     <t>V0020</t>
   </si>
   <si>
+    <t>V0021</t>
+  </si>
+  <si>
+    <t>V0022</t>
+  </si>
+  <si>
+    <t>V0023</t>
+  </si>
+  <si>
+    <t>V0024</t>
+  </si>
+  <si>
     <t>Lake Systems Group</t>
   </si>
   <si>
@@ -163,6 +175,9 @@
     <t>River Analytics LLC</t>
   </si>
   <si>
+    <t>Northstar Technologies Inc</t>
+  </si>
+  <si>
     <t>INV-2024-10001.pdf</t>
   </si>
   <si>
@@ -250,6 +265,18 @@
     <t>PO-4900100009.pdf</t>
   </si>
   <si>
+    <t>PO-Equipment-Tracker.xlsx</t>
+  </si>
+  <si>
+    <t>PO-License-Summary.xlsx</t>
+  </si>
+  <si>
+    <t>PO-Request-Email.eml</t>
+  </si>
+  <si>
+    <t>PO-Service-Quotation.docx</t>
+  </si>
+  <si>
     <t>INV-2024-10001</t>
   </si>
   <si>
@@ -310,6 +337,12 @@
     <t>INV-2024-10020</t>
   </si>
   <si>
+    <t>PO-4900596750</t>
+  </si>
+  <si>
+    <t>Q-78146</t>
+  </si>
+  <si>
     <t>2023-01-26</t>
   </si>
   <si>
@@ -403,6 +436,12 @@
     <t>Development Tools Package, Cloud Platform Access</t>
   </si>
   <si>
+    <t>IT Equipment (Multi-vendor PO)</t>
+  </si>
+  <si>
+    <t>Software License (Multi-vendor PO)</t>
+  </si>
+  <si>
     <t>2x Analytics Platform Subscription ($45,741.00 ea), 10x Enterprise License - Annual Subscription ($42,651.00 ea)</t>
   </si>
   <si>
@@ -463,6 +502,18 @@
     <t>7x Professional Services - Implementation ($673,141.00 total)</t>
   </si>
   <si>
+    <t>Cloud Platform Access, Network Switch, Technical Consulting, Server Rack, Managed Services</t>
+  </si>
+  <si>
+    <t>System Integration, Training Program, Storage Array, Professional Services, Security Suite</t>
+  </si>
+  <si>
+    <t>Workstation - High Performance (5), Network Switch - 48 Port (4), UPS Battery Backup System (3)</t>
+  </si>
+  <si>
+    <t>Data services implementation</t>
+  </si>
+  <si>
     <t>INVOICE Lake Systems Group 600 Automotive Way Detroit, MI 48201 Tax ID: 38-1234560 Phone: (313) 555-1200 PLEASE REFER TO YOUR ACCOUNT NO., AND OUR INVOICE AND ORDER NO. IN ALL COMMUNICATIONS REGARDING THIS INVOICE</t>
   </si>
   <si>
@@ -569,12 +620,27 @@
   </si>
   <si>
     <t>SFT-DEV-005, SFT-CLD-002</t>
+  </si>
+  <si>
+    <t>Equipment Tracker, Multi-vendor</t>
+  </si>
+  <si>
+    <t>License Summary, Multi-vendor</t>
+  </si>
+  <si>
+    <t>Workstation, Network Switch, UPS</t>
+  </si>
+  <si>
+    <t>Professional Services Quotation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -627,11 +693,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -987,22 +1054,22 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G2">
         <v>4500256787</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I2">
         <v>517992</v>
@@ -1017,16 +1084,16 @@
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="N2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1034,22 +1101,22 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G3">
         <v>4500243962</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I3">
         <v>577078</v>
@@ -1064,16 +1131,16 @@
         <v>7.9</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O3" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1081,19 +1148,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I4">
         <v>34902</v>
@@ -1108,16 +1175,16 @@
         <v>8.75</v>
       </c>
       <c r="M4" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="N4" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O4" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1125,22 +1192,22 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G5">
         <v>4500738797</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I5">
         <v>317368</v>
@@ -1155,16 +1222,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M5" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="N5" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O5" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1172,19 +1239,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="I6">
         <v>268960</v>
@@ -1199,16 +1266,16 @@
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="N6" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O6" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1216,19 +1283,19 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I7">
         <v>542640</v>
@@ -1243,16 +1310,16 @@
         <v>10.25</v>
       </c>
       <c r="M7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="N7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1260,22 +1327,22 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G8">
         <v>4500149811</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="I8">
         <v>89802</v>
@@ -1290,16 +1357,16 @@
         <v>5.6</v>
       </c>
       <c r="M8" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O8" t="s">
+        <v>172</v>
+      </c>
+      <c r="P8" t="s">
         <v>135</v>
-      </c>
-      <c r="O8" t="s">
-        <v>155</v>
-      </c>
-      <c r="P8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1307,19 +1374,19 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I9">
         <v>1056168</v>
@@ -1334,16 +1401,16 @@
         <v>6.5</v>
       </c>
       <c r="M9" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="O9" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1351,19 +1418,19 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I10">
         <v>789482</v>
@@ -1378,16 +1445,16 @@
         <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="O10" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1395,19 +1462,19 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G11">
         <v>4900963110</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="I11">
         <v>213852</v>
@@ -1422,16 +1489,16 @@
         <v>8.75</v>
       </c>
       <c r="M11" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="N11" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1439,19 +1506,19 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G12">
         <v>4500921406</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I12">
         <v>350312</v>
@@ -1466,16 +1533,16 @@
         <v>6.25</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1483,16 +1550,16 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="I13">
         <v>1470171</v>
@@ -1507,16 +1574,16 @@
         <v>7.88</v>
       </c>
       <c r="M13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="O13" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1524,19 +1591,19 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G14">
         <v>4900074441</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I14">
         <v>323196</v>
@@ -1551,16 +1618,16 @@
         <v>7</v>
       </c>
       <c r="M14" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1568,19 +1635,19 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G15">
         <v>4500074299</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="I15">
         <v>516896</v>
@@ -1595,16 +1662,16 @@
         <v>8.25</v>
       </c>
       <c r="M15" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1612,19 +1679,19 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G16">
         <v>4500260735</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I16">
         <v>11556</v>
@@ -1639,16 +1706,16 @@
         <v>5.6</v>
       </c>
       <c r="M16" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1656,19 +1723,19 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G17">
         <v>4900146991</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I17">
         <v>763143</v>
@@ -1683,16 +1750,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1700,16 +1767,16 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I18">
         <v>63529</v>
@@ -1724,16 +1791,16 @@
         <v>6.25</v>
       </c>
       <c r="M18" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="N18" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1741,19 +1808,19 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G19">
         <v>4900052578</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I19">
         <v>46157</v>
@@ -1768,16 +1835,16 @@
         <v>8.9</v>
       </c>
       <c r="M19" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="N19" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1785,19 +1852,19 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G20">
         <v>4900165080</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I20">
         <v>88620</v>
@@ -1812,16 +1879,16 @@
         <v>6.2</v>
       </c>
       <c r="M20" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="N20" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O20" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1829,16 +1896,16 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I21">
         <v>673141</v>
@@ -1853,16 +1920,162 @@
         <v>8.25</v>
       </c>
       <c r="M21" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N21" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="O21" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="2">
+        <v>45200</v>
+      </c>
+      <c r="I22">
+        <v>154556</v>
+      </c>
+      <c r="J22">
+        <v>12364.48</v>
+      </c>
+      <c r="K22">
+        <v>166920.48</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>140</v>
+      </c>
+      <c r="N22" t="s">
+        <v>162</v>
+      </c>
+      <c r="P22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="2">
+        <v>45476</v>
+      </c>
+      <c r="I23">
+        <v>861047</v>
+      </c>
+      <c r="J23">
+        <v>68883.75999999999</v>
+      </c>
+      <c r="K23">
+        <v>929930.76</v>
+      </c>
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="2">
+        <v>45345</v>
+      </c>
+      <c r="I24">
+        <v>57864</v>
+      </c>
+      <c r="J24">
+        <v>3471.84</v>
+      </c>
+      <c r="K24">
+        <v>61335.84</v>
+      </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="M24" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="2">
+        <v>44928</v>
+      </c>
+      <c r="I25">
+        <v>827428</v>
+      </c>
+      <c r="J25">
+        <v>46335.97</v>
+      </c>
+      <c r="K25">
+        <v>873763.97</v>
+      </c>
+      <c r="L25">
+        <v>5.6</v>
+      </c>
+      <c r="M25" t="s">
+        <v>136</v>
+      </c>
+      <c r="N25" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
